--- a/Localiza/LOCALIZA_SV.xlsx
+++ b/Localiza/LOCALIZA_SV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\El Salvador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Desktop\Python\datos_electorales_sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0BAC7-84E0-49A1-A041-AA833BB73689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F8FF79-1814-4801-BB6D-E1039F717246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
+    <workbookView xWindow="60" yWindow="405" windowWidth="20430" windowHeight="6270" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -381,9 +372,6 @@
     <t>Mercedes La Ceiba</t>
   </si>
   <si>
-    <t>Mercedes Umana</t>
-  </si>
-  <si>
     <t>Metapan</t>
   </si>
   <si>
@@ -504,9 +492,6 @@
     <t>San Bartolome Perulapia</t>
   </si>
   <si>
-    <t>San Buena Ventura</t>
-  </si>
-  <si>
     <t>San Carlos</t>
   </si>
   <si>
@@ -850,6 +835,12 @@
   </si>
   <si>
     <t>La Paz</t>
+  </si>
+  <si>
+    <t>San Buenaventura</t>
+  </si>
+  <si>
+    <t>Mercedes Umaña</t>
   </si>
 </sst>
 </file>
@@ -1261,22 +1252,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454E5203-1221-4CEF-8979-BC0E3FCEE1BC}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1295,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2">
         <v>-89.853200000000001</v>
@@ -1333,7 +1324,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3">
         <v>-89.800151999999997</v>
@@ -1362,7 +1353,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4">
         <v>-89.742380999999995</v>
@@ -1391,7 +1382,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1396,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F5">
         <v>-89.85821</v>
@@ -1420,7 +1411,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1425,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F6">
         <v>-89.710341</v>
@@ -1449,7 +1440,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F7">
         <v>-89.857664</v>
@@ -1478,7 +1469,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1483,7 @@
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8">
         <v>-89.938175999999999</v>
@@ -1507,7 +1498,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1518,10 +1509,10 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F9">
         <v>-90.034263999999993</v>
@@ -1536,7 +1527,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1547,10 +1538,10 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F10">
         <v>-89.792312999999993</v>
@@ -1565,7 +1556,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1576,10 +1567,10 @@
         <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11">
         <v>-89.806254999999993</v>
@@ -1594,7 +1585,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1605,10 +1596,10 @@
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F12">
         <v>-89.951562999999993</v>
@@ -1623,7 +1614,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1634,10 +1625,10 @@
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F13">
         <v>-89.774410000000003</v>
@@ -1652,7 +1643,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1657,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F14">
         <v>-89.637433999999999</v>
@@ -1681,7 +1672,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F15">
         <v>-89.467168999999998</v>
@@ -1710,7 +1701,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16">
         <v>-89.655743999999999</v>
@@ -1739,7 +1730,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1744,7 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F17">
         <v>-89.513373999999999</v>
@@ -1768,7 +1759,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1773,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F18">
         <v>-89.646394000000001</v>
@@ -1797,7 +1788,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1811,7 +1802,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F19">
         <v>-89.415676000000005</v>
@@ -1826,7 +1817,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1837,10 +1828,10 @@
         <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20">
         <v>-89.425162</v>
@@ -1855,7 +1846,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1866,10 +1857,10 @@
         <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21">
         <v>-89.555002000000002</v>
@@ -1884,7 +1875,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1895,10 +1886,10 @@
         <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22">
         <v>-89.637238999999994</v>
@@ -1913,7 +1904,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1924,10 +1915,10 @@
         <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23">
         <v>-89.548679000000007</v>
@@ -1942,7 +1933,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1953,10 +1944,10 @@
         <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F24">
         <v>-89.341721000000007</v>
@@ -1971,7 +1962,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1982,10 +1973,10 @@
         <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F25">
         <v>-89.622512999999998</v>
@@ -2000,7 +1991,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2011,10 +2002,10 @@
         <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F26">
         <v>-89.493753999999996</v>
@@ -2029,7 +2020,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2034,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F27">
         <v>-89.850516999999996</v>
@@ -2058,7 +2049,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F28">
         <v>-89.503541999999996</v>
@@ -2087,7 +2078,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2092,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F29">
         <v>-89.637906000000001</v>
@@ -2116,7 +2107,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2121,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F30">
         <v>-89.635454999999993</v>
@@ -2145,7 +2136,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2156,10 +2147,10 @@
         <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31">
         <v>-89.594312000000002</v>
@@ -2174,7 +2165,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2179,7 @@
         <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F32">
         <v>-89.628241000000003</v>
@@ -2203,7 +2194,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2208,7 @@
         <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33">
         <v>-89.718169000000003</v>
@@ -2232,7 +2223,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2243,10 +2234,10 @@
         <v>308</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F34">
         <v>-89.707802999999998</v>
@@ -2261,7 +2252,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2272,10 +2263,10 @@
         <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F35">
         <v>-89.721718999999993</v>
@@ -2290,7 +2281,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2301,10 +2292,10 @@
         <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36">
         <v>-89.758402000000004</v>
@@ -2319,7 +2310,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2330,10 +2321,10 @@
         <v>311</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F37">
         <v>-89.755437000000001</v>
@@ -2348,7 +2339,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2359,10 +2350,10 @@
         <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F38">
         <v>-89.562236999999996</v>
@@ -2377,7 +2368,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2388,10 +2379,10 @@
         <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F39">
         <v>-89.773240999999999</v>
@@ -2406,7 +2397,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2417,10 +2408,10 @@
         <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F40">
         <v>-89.797787</v>
@@ -2435,7 +2426,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2446,10 +2437,10 @@
         <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F41">
         <v>-89.761364</v>
@@ -2464,7 +2455,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2475,10 +2466,10 @@
         <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F42">
         <v>-89.715070999999995</v>
@@ -2493,7 +2484,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2513,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +2542,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2571,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2609,7 +2600,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2638,7 +2629,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2658,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2687,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2716,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2745,7 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +2774,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2803,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2841,7 +2832,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2861,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +2890,7 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2910,7 +2901,7 @@
         <v>415</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
@@ -2928,7 +2919,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2930,7 @@
         <v>416</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
         <v>33</v>
@@ -2957,7 +2948,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2959,7 @@
         <v>417</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
         <v>33</v>
@@ -2986,7 +2977,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +2988,7 @@
         <v>418</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
         <v>33</v>
@@ -3015,7 +3006,7 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3026,7 +3017,7 @@
         <v>419</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
         <v>33</v>
@@ -3044,7 +3035,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3046,7 @@
         <v>420</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
         <v>33</v>
@@ -3073,7 +3064,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3075,7 @@
         <v>421</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
         <v>33</v>
@@ -3102,7 +3093,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +3104,7 @@
         <v>422</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
         <v>33</v>
@@ -3131,7 +3122,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>423</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
         <v>33</v>
@@ -3160,7 +3151,7 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3162,7 @@
         <v>424</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
@@ -3189,7 +3180,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3200,7 +3191,7 @@
         <v>425</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s">
         <v>33</v>
@@ -3218,7 +3209,7 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3229,7 +3220,7 @@
         <v>426</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
@@ -3247,7 +3238,7 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3267,7 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3296,7 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3307,7 @@
         <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" t="s">
         <v>33</v>
@@ -3334,7 +3325,7 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3345,7 +3336,7 @@
         <v>430</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
         <v>33</v>
@@ -3363,7 +3354,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3374,7 +3365,7 @@
         <v>431</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
         <v>33</v>
@@ -3392,7 +3383,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3394,7 @@
         <v>432</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
@@ -3421,7 +3412,7 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3423,7 @@
         <v>433</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
         <v>33</v>
@@ -3450,7 +3441,7 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3479,7 +3470,7 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +3499,7 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3537,7 +3528,7 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3566,7 +3557,7 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3586,7 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3615,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3653,7 +3644,7 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3682,7 +3673,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3711,7 +3702,7 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +3713,7 @@
         <v>510</v>
       </c>
       <c r="D85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
         <v>101</v>
@@ -3740,7 +3731,7 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3742,7 @@
         <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E86" t="s">
         <v>101</v>
@@ -3769,7 +3760,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3771,7 @@
         <v>512</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
         <v>101</v>
@@ -3798,7 +3789,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3800,7 @@
         <v>513</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
         <v>101</v>
@@ -3827,7 +3818,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3829,7 @@
         <v>514</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
         <v>101</v>
@@ -3856,7 +3847,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3867,7 +3858,7 @@
         <v>515</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E90" t="s">
         <v>101</v>
@@ -3885,7 +3876,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +3887,7 @@
         <v>516</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
         <v>101</v>
@@ -3914,7 +3905,7 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +3916,7 @@
         <v>517</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E92" t="s">
         <v>101</v>
@@ -3943,7 +3934,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3954,7 +3945,7 @@
         <v>518</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
         <v>101</v>
@@ -3972,7 +3963,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3974,7 @@
         <v>519</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
         <v>101</v>
@@ -4001,7 +3992,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4012,7 +4003,7 @@
         <v>520</v>
       </c>
       <c r="D95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
         <v>101</v>
@@ -4030,7 +4021,7 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4032,7 @@
         <v>521</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
         <v>101</v>
@@ -4059,7 +4050,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4061,7 @@
         <v>522</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E97" t="s">
         <v>101</v>
@@ -4088,7 +4079,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4102,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F98">
         <v>-89.197367</v>
@@ -4117,7 +4108,7 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4131,7 +4122,7 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F99">
         <v>-89.196949000000004</v>
@@ -4146,7 +4137,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4151,7 @@
         <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F100">
         <v>-89.19614</v>
@@ -4175,7 +4166,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4180,7 @@
         <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F101">
         <v>-89.180302999999995</v>
@@ -4204,7 +4195,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4209,7 @@
         <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F102">
         <v>-89.219438999999994</v>
@@ -4233,7 +4224,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4238,7 @@
         <v>82</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103">
         <v>-89.166498000000004</v>
@@ -4262,7 +4253,7 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4267,7 @@
         <v>85</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104">
         <v>-89.095429999999993</v>
@@ -4291,7 +4282,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4305,7 +4296,7 @@
         <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105">
         <v>-89.218783999999999</v>
@@ -4320,7 +4311,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4331,10 +4322,10 @@
         <v>609</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106">
         <v>-89.226279000000005</v>
@@ -4349,7 +4340,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4360,10 +4351,10 @@
         <v>610</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107">
         <v>-89.158613000000003</v>
@@ -4378,7 +4369,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4389,10 +4380,10 @@
         <v>611</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108">
         <v>-89.206269000000006</v>
@@ -4407,7 +4398,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4418,10 +4409,10 @@
         <v>612</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F109">
         <v>-89.175399999999996</v>
@@ -4436,7 +4427,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4447,10 +4438,10 @@
         <v>613</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F110">
         <v>-89.061976999999999</v>
@@ -4465,7 +4456,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4476,10 +4467,10 @@
         <v>614</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111">
         <v>-89.215541999999999</v>
@@ -4494,7 +4485,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4505,10 +4496,10 @@
         <v>615</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F112">
         <v>-89.095039999999997</v>
@@ -4523,7 +4514,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4534,10 +4525,10 @@
         <v>616</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F113">
         <v>-89.143264000000002</v>
@@ -4552,7 +4543,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4563,10 +4554,10 @@
         <v>617</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F114">
         <v>-89.143426000000005</v>
@@ -4581,7 +4572,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4592,10 +4583,10 @@
         <v>618</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F115">
         <v>-89.118837999999997</v>
@@ -4610,7 +4601,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4624,7 +4615,7 @@
         <v>59</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F116">
         <v>-89.160325</v>
@@ -4639,7 +4630,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4653,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F117">
         <v>-88.983258000000006</v>
@@ -4668,7 +4659,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4682,7 +4673,7 @@
         <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F118">
         <v>-88.942417000000006</v>
@@ -4697,7 +4688,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4702,7 @@
         <v>63</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F119">
         <v>-88.905925999999994</v>
@@ -4726,7 +4717,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4731,7 @@
         <v>71</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F120">
         <v>-88.904557999999994</v>
@@ -4755,7 +4746,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4766,10 +4757,10 @@
         <v>705</v>
       </c>
       <c r="D121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F121">
         <v>-88.942791</v>
@@ -4784,7 +4775,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4795,10 +4786,10 @@
         <v>706</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F122">
         <v>-89.055097000000004</v>
@@ -4813,7 +4804,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4824,10 +4815,10 @@
         <v>707</v>
       </c>
       <c r="D123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F123">
         <v>-89.062254999999993</v>
@@ -4842,7 +4833,7 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4853,10 +4844,10 @@
         <v>708</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E124" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F124">
         <v>-88.896704</v>
@@ -4871,7 +4862,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4882,10 +4873,10 @@
         <v>709</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E125" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F125">
         <v>-89.096007999999998</v>
@@ -4900,7 +4891,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4911,10 +4902,10 @@
         <v>710</v>
       </c>
       <c r="D126" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F126">
         <v>-89.015210999999994</v>
@@ -4929,7 +4920,7 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4940,10 +4931,10 @@
         <v>711</v>
       </c>
       <c r="D127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F127">
         <v>-88.877313999999998</v>
@@ -4958,7 +4949,7 @@
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4969,10 +4960,10 @@
         <v>712</v>
       </c>
       <c r="D128" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F128">
         <v>-88.927884000000006</v>
@@ -4987,7 +4978,7 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4998,10 +4989,10 @@
         <v>713</v>
       </c>
       <c r="D129" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E129" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F129">
         <v>-88.956652000000005</v>
@@ -5016,7 +5007,7 @@
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -5027,10 +5018,10 @@
         <v>714</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F130">
         <v>-88.971269000000007</v>
@@ -5045,7 +5036,7 @@
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -5056,10 +5047,10 @@
         <v>715</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F131">
         <v>-89.072587999999996</v>
@@ -5074,7 +5065,7 @@
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -5085,10 +5076,10 @@
         <v>716</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F132">
         <v>-88.972037</v>
@@ -5103,7 +5094,7 @@
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5117,7 +5108,7 @@
         <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F133">
         <v>-89.091189</v>
@@ -5132,7 +5123,7 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -5146,7 +5137,7 @@
         <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F134">
         <v>-89.004977999999994</v>
@@ -5161,7 +5152,7 @@
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +5166,7 @@
         <v>89</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F135">
         <v>-88.912621999999999</v>
@@ -5190,7 +5181,7 @@
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5204,7 +5195,7 @@
         <v>114</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F136">
         <v>-88.914023</v>
@@ -5219,7 +5210,7 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5230,10 +5221,10 @@
         <v>805</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137">
         <v>-89.127092000000005</v>
@@ -5248,7 +5239,7 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5259,10 +5250,10 @@
         <v>806</v>
       </c>
       <c r="D138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138">
         <v>-88.962057000000001</v>
@@ -5277,7 +5268,7 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5288,10 +5279,10 @@
         <v>807</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139">
         <v>-89.021506000000002</v>
@@ -5306,7 +5297,7 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5317,10 +5308,10 @@
         <v>808</v>
       </c>
       <c r="D140" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140">
         <v>-88.991506000000001</v>
@@ -5335,7 +5326,7 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5346,10 +5337,10 @@
         <v>809</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141">
         <v>-89.072963000000001</v>
@@ -5364,7 +5355,7 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5375,10 +5366,10 @@
         <v>810</v>
       </c>
       <c r="D142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142">
         <v>-88.921234999999996</v>
@@ -5393,7 +5384,7 @@
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5404,10 +5395,10 @@
         <v>811</v>
       </c>
       <c r="D143" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143">
         <v>-89.090385999999995</v>
@@ -5422,7 +5413,7 @@
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5433,10 +5424,10 @@
         <v>812</v>
       </c>
       <c r="D144" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144">
         <v>-88.994270999999998</v>
@@ -5451,7 +5442,7 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5462,10 +5453,10 @@
         <v>813</v>
       </c>
       <c r="D145" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F145">
         <v>-89.092581999999993</v>
@@ -5480,7 +5471,7 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5491,10 +5482,10 @@
         <v>814</v>
       </c>
       <c r="D146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F146">
         <v>-89.019837999999993</v>
@@ -5509,7 +5500,7 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5520,10 +5511,10 @@
         <v>815</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F147">
         <v>-89.028349000000006</v>
@@ -5538,7 +5529,7 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5549,10 +5540,10 @@
         <v>816</v>
       </c>
       <c r="D148" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F148">
         <v>-88.934841000000006</v>
@@ -5567,7 +5558,7 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5578,10 +5569,10 @@
         <v>817</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F149">
         <v>-88.921728999999999</v>
@@ -5596,7 +5587,7 @@
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5607,10 +5598,10 @@
         <v>818</v>
       </c>
       <c r="D150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F150">
         <v>-88.926603</v>
@@ -5625,7 +5616,7 @@
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -5636,10 +5627,10 @@
         <v>819</v>
       </c>
       <c r="D151" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F151">
         <v>-88.954757999999998</v>
@@ -5654,7 +5645,7 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -5665,10 +5656,10 @@
         <v>820</v>
       </c>
       <c r="D152" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E152" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F152">
         <v>-89.067274999999995</v>
@@ -5683,7 +5674,7 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -5694,10 +5685,10 @@
         <v>821</v>
       </c>
       <c r="D153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F153">
         <v>-88.850763000000001</v>
@@ -5712,7 +5703,7 @@
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -5723,10 +5714,10 @@
         <v>822</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F154">
         <v>-88.913365999999996</v>
@@ -5741,7 +5732,7 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -5755,7 +5746,7 @@
         <v>40</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F155">
         <v>-88.965069</v>
@@ -5770,7 +5761,7 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -5784,7 +5775,7 @@
         <v>77</v>
       </c>
       <c r="E156" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F156">
         <v>-88.652651000000006</v>
@@ -5799,7 +5790,7 @@
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -5813,7 +5804,7 @@
         <v>84</v>
       </c>
       <c r="E157" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F157">
         <v>-88.819658000000004</v>
@@ -5828,7 +5819,7 @@
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -5842,7 +5833,7 @@
         <v>99</v>
       </c>
       <c r="E158" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F158">
         <v>-88.878798000000003</v>
@@ -5857,7 +5848,7 @@
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -5868,10 +5859,10 @@
         <v>905</v>
       </c>
       <c r="D159" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E159" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F159">
         <v>-88.707115999999999</v>
@@ -5886,7 +5877,7 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -5897,10 +5888,10 @@
         <v>906</v>
       </c>
       <c r="D160" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E160" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F160">
         <v>-88.576347999999996</v>
@@ -5915,7 +5906,7 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -5926,10 +5917,10 @@
         <v>907</v>
       </c>
       <c r="D161" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F161">
         <v>-88.918094999999994</v>
@@ -5944,7 +5935,7 @@
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -5955,10 +5946,10 @@
         <v>908</v>
       </c>
       <c r="D162" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E162" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F162">
         <v>-88.643268000000006</v>
@@ -5973,7 +5964,7 @@
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -5987,7 +5978,7 @@
         <v>61</v>
       </c>
       <c r="E163" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F163">
         <v>-88.555087999999998</v>
@@ -6002,7 +5993,7 @@
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -6013,10 +6004,10 @@
         <v>999</v>
       </c>
       <c r="D164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F164">
         <v>-88.144026999999994</v>
@@ -6031,7 +6022,7 @@
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -6045,7 +6036,7 @@
         <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F165">
         <v>-88.653989999999993</v>
@@ -6060,7 +6051,7 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -6074,7 +6065,7 @@
         <v>78</v>
       </c>
       <c r="E166" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F166">
         <v>-88.867095000000006</v>
@@ -6089,7 +6080,7 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -6100,10 +6091,10 @@
         <v>1003</v>
       </c>
       <c r="D167" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E167" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F167">
         <v>-88.814712999999998</v>
@@ -6118,7 +6109,7 @@
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -6129,10 +6120,10 @@
         <v>1004</v>
       </c>
       <c r="D168" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E168" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F168">
         <v>-88.664876000000007</v>
@@ -6147,7 +6138,7 @@
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -6158,10 +6149,10 @@
         <v>1005</v>
       </c>
       <c r="D169" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E169" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F169">
         <v>-88.854667000000006</v>
@@ -6176,7 +6167,7 @@
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -6187,10 +6178,10 @@
         <v>1006</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E170" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F170">
         <v>-88.743388999999993</v>
@@ -6205,7 +6196,7 @@
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -6216,10 +6207,10 @@
         <v>1007</v>
       </c>
       <c r="D171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F171">
         <v>-88.562343999999996</v>
@@ -6234,7 +6225,7 @@
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -6245,10 +6236,10 @@
         <v>1008</v>
       </c>
       <c r="D172" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F172">
         <v>-88.817677000000003</v>
@@ -6263,7 +6254,7 @@
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -6274,10 +6265,10 @@
         <v>1009</v>
       </c>
       <c r="D173" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E173" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F173">
         <v>-88.812614999999994</v>
@@ -6292,7 +6283,7 @@
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -6303,10 +6294,10 @@
         <v>1010</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F174">
         <v>-88.716740000000001</v>
@@ -6321,7 +6312,7 @@
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6332,10 +6323,10 @@
         <v>1011</v>
       </c>
       <c r="D175" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E175" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F175">
         <v>-88.767298999999994</v>
@@ -6350,7 +6341,7 @@
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -6361,10 +6352,10 @@
         <v>1012</v>
       </c>
       <c r="D176" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E176" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F176">
         <v>-88.839862999999994</v>
@@ -6379,7 +6370,7 @@
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -6390,10 +6381,10 @@
         <v>1013</v>
       </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E177" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F177">
         <v>-88.871512999999993</v>
@@ -6408,7 +6399,7 @@
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -6422,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F178">
         <v>-88.490513000000007</v>
@@ -6437,7 +6428,7 @@
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6442,7 @@
         <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F179">
         <v>-88.591356000000005</v>
@@ -6466,7 +6457,7 @@
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -6480,7 +6471,7 @@
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F180">
         <v>-88.458568</v>
@@ -6495,7 +6486,7 @@
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6509,7 +6500,7 @@
         <v>50</v>
       </c>
       <c r="E181" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F181">
         <v>-88.350859999999997</v>
@@ -6524,7 +6515,7 @@
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -6538,7 +6529,7 @@
         <v>74</v>
       </c>
       <c r="E182" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F182">
         <v>-88.411833999999999</v>
@@ -6553,7 +6544,7 @@
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -6567,7 +6558,7 @@
         <v>75</v>
       </c>
       <c r="E183" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F183">
         <v>-88.380346000000003</v>
@@ -6582,7 +6573,7 @@
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -6596,7 +6587,7 @@
         <v>76</v>
       </c>
       <c r="E184" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F184">
         <v>-88.516465999999994</v>
@@ -6611,7 +6602,7 @@
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -6625,7 +6616,7 @@
         <v>91</v>
       </c>
       <c r="E185" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F185">
         <v>-88.663499999999999</v>
@@ -6640,7 +6631,7 @@
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -6654,7 +6645,7 @@
         <v>96</v>
       </c>
       <c r="E186" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F186">
         <v>-88.405134000000004</v>
@@ -6669,7 +6660,7 @@
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -6683,7 +6674,7 @@
         <v>97</v>
       </c>
       <c r="E187" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F187">
         <v>-88.250601000000003</v>
@@ -6698,7 +6689,7 @@
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -6709,10 +6700,10 @@
         <v>1111</v>
       </c>
       <c r="D188" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="E188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F188">
         <v>-88.509255999999993</v>
@@ -6727,7 +6718,7 @@
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -6738,10 +6729,10 @@
         <v>1112</v>
       </c>
       <c r="D189" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E189" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F189">
         <v>-88.453950000000006</v>
@@ -6756,7 +6747,7 @@
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -6767,10 +6758,10 @@
         <v>1113</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E190" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F190">
         <v>-88.513363999999996</v>
@@ -6785,7 +6776,7 @@
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -6796,10 +6787,10 @@
         <v>1114</v>
       </c>
       <c r="D191" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F191">
         <v>-88.596295999999995</v>
@@ -6814,7 +6805,7 @@
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -6825,10 +6816,10 @@
         <v>1115</v>
       </c>
       <c r="D192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F192">
         <v>-88.583121000000006</v>
@@ -6843,7 +6834,7 @@
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -6854,10 +6845,10 @@
         <v>1116</v>
       </c>
       <c r="D193" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="E193" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F193">
         <v>-88.401769000000002</v>
@@ -6872,7 +6863,7 @@
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -6883,10 +6874,10 @@
         <v>1117</v>
       </c>
       <c r="D194" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E194" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F194">
         <v>-88.454494999999994</v>
@@ -6901,7 +6892,7 @@
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -6912,10 +6903,10 @@
         <v>1118</v>
       </c>
       <c r="D195" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E195" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F195">
         <v>-88.415029000000004</v>
@@ -6930,7 +6921,7 @@
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -6941,10 +6932,10 @@
         <v>1119</v>
       </c>
       <c r="D196" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E196" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F196">
         <v>-88.570736999999994</v>
@@ -6959,7 +6950,7 @@
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -6970,10 +6961,10 @@
         <v>1120</v>
       </c>
       <c r="D197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E197" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F197">
         <v>-88.407577000000003</v>
@@ -6988,7 +6979,7 @@
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -6999,10 +6990,10 @@
         <v>1121</v>
       </c>
       <c r="D198" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E198" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F198">
         <v>-88.452633000000006</v>
@@ -7017,7 +7008,7 @@
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -7028,10 +7019,10 @@
         <v>1122</v>
       </c>
       <c r="D199" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E199" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F199">
         <v>-88.505747999999997</v>
@@ -7046,7 +7037,7 @@
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -7057,10 +7048,10 @@
         <v>1123</v>
       </c>
       <c r="D200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E200" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F200">
         <v>-88.482439999999997</v>
@@ -7075,7 +7066,7 @@
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -7089,7 +7080,7 @@
         <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F201">
         <v>-88.309945999999997</v>
@@ -7104,7 +7095,7 @@
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -7118,7 +7109,7 @@
         <v>43</v>
       </c>
       <c r="E202" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F202">
         <v>-88.290623999999994</v>
@@ -7133,7 +7124,7 @@
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -7147,7 +7138,7 @@
         <v>47</v>
       </c>
       <c r="E203" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F203">
         <v>-88.058049999999994</v>
@@ -7162,7 +7153,7 @@
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -7176,7 +7167,7 @@
         <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F204">
         <v>-88.273900999999995</v>
@@ -7191,7 +7182,7 @@
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -7205,7 +7196,7 @@
         <v>38</v>
       </c>
       <c r="E205" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F205">
         <v>-88.339223000000004</v>
@@ -7220,7 +7211,7 @@
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="E206" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F206">
         <v>-88.129050000000007</v>
@@ -7249,7 +7240,7 @@
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -7263,7 +7254,7 @@
         <v>73</v>
       </c>
       <c r="E207" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F207">
         <v>-88.271995000000004</v>
@@ -7278,7 +7269,7 @@
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -7292,7 +7283,7 @@
         <v>108</v>
       </c>
       <c r="E208" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F208">
         <v>-88.348808000000005</v>
@@ -7307,7 +7298,7 @@
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -7318,10 +7309,10 @@
         <v>1209</v>
       </c>
       <c r="D209" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E209" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F209">
         <v>-88.266186000000005</v>
@@ -7336,7 +7327,7 @@
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -7347,10 +7338,10 @@
         <v>1210</v>
       </c>
       <c r="D210" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E210" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F210">
         <v>-88.317250999999999</v>
@@ -7365,7 +7356,7 @@
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -7376,10 +7367,10 @@
         <v>1211</v>
       </c>
       <c r="D211" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E211" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F211">
         <v>-88.476602999999997</v>
@@ -7394,7 +7385,7 @@
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -7405,10 +7396,10 @@
         <v>1212</v>
       </c>
       <c r="D212" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E212" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F212">
         <v>-88.229388999999998</v>
@@ -7423,7 +7414,7 @@
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -7434,10 +7425,10 @@
         <v>1213</v>
       </c>
       <c r="D213" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E213" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F213">
         <v>-88.271687</v>
@@ -7452,7 +7443,7 @@
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -7463,10 +7454,10 @@
         <v>1214</v>
       </c>
       <c r="D214" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E214" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F214">
         <v>-88.410641999999996</v>
@@ -7481,7 +7472,7 @@
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -7492,10 +7483,10 @@
         <v>1215</v>
       </c>
       <c r="D215" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E215" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F215">
         <v>-88.332666000000003</v>
@@ -7510,7 +7501,7 @@
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -7521,10 +7512,10 @@
         <v>1216</v>
       </c>
       <c r="D216" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E216" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F216">
         <v>-88.355680000000007</v>
@@ -7539,7 +7530,7 @@
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -7550,10 +7541,10 @@
         <v>1217</v>
       </c>
       <c r="D217" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E217" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F217">
         <v>-88.157652999999996</v>
@@ -7568,7 +7559,7 @@
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -7579,10 +7570,10 @@
         <v>1218</v>
       </c>
       <c r="D218" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E218" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F218">
         <v>-88.353688000000005</v>
@@ -7597,7 +7588,7 @@
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -7608,10 +7599,10 @@
         <v>1219</v>
       </c>
       <c r="D219" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E219" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F219">
         <v>-88.390704999999997</v>
@@ -7626,7 +7617,7 @@
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -7637,10 +7628,10 @@
         <v>1220</v>
       </c>
       <c r="D220" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E220" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F220">
         <v>-88.059788999999995</v>
@@ -7655,7 +7646,7 @@
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -7669,7 +7660,7 @@
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F221">
         <v>-88.113326000000001</v>
@@ -7684,7 +7675,7 @@
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -7698,7 +7689,7 @@
         <v>26</v>
       </c>
       <c r="E222" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F222">
         <v>-88.054334999999995</v>
@@ -7713,7 +7704,7 @@
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -7727,7 +7718,7 @@
         <v>55</v>
       </c>
       <c r="E223" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F223">
         <v>-87.976284000000007</v>
@@ -7742,7 +7733,7 @@
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -7756,7 +7747,7 @@
         <v>36</v>
       </c>
       <c r="E224" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F224">
         <v>-88.158133000000007</v>
@@ -7771,7 +7762,7 @@
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -7785,7 +7776,7 @@
         <v>60</v>
       </c>
       <c r="E225" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F225">
         <v>-88.146944000000005</v>
@@ -7800,7 +7791,7 @@
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -7814,7 +7805,7 @@
         <v>66</v>
       </c>
       <c r="E226" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F226">
         <v>-88.083719000000002</v>
@@ -7829,7 +7820,7 @@
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -7843,7 +7834,7 @@
         <v>71</v>
       </c>
       <c r="E227" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F227">
         <v>-88.199566000000004</v>
@@ -7858,7 +7849,7 @@
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -7872,7 +7863,7 @@
         <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F228">
         <v>-88.203720000000004</v>
@@ -7887,7 +7878,7 @@
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -7901,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="E229" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F229">
         <v>-88.224378000000002</v>
@@ -7916,7 +7907,7 @@
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +7921,7 @@
         <v>92</v>
       </c>
       <c r="E230" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F230">
         <v>-88.063986</v>
@@ -7945,7 +7936,7 @@
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +7950,7 @@
         <v>93</v>
       </c>
       <c r="E231" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F231">
         <v>-88.161929999999998</v>
@@ -7974,7 +7965,7 @@
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -7988,7 +7979,7 @@
         <v>94</v>
       </c>
       <c r="E232" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F232">
         <v>-88.013986000000003</v>
@@ -8003,7 +7994,7 @@
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -8017,7 +8008,7 @@
         <v>109</v>
       </c>
       <c r="E233" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F233">
         <v>-88.077990999999997</v>
@@ -8032,7 +8023,7 @@
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -8046,7 +8037,7 @@
         <v>111</v>
       </c>
       <c r="E234" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F234">
         <v>-88.130511999999996</v>
@@ -8061,7 +8052,7 @@
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -8072,10 +8063,10 @@
         <v>1315</v>
       </c>
       <c r="D235" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E235" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F235">
         <v>-88.166284000000005</v>
@@ -8090,7 +8081,7 @@
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -8101,10 +8092,10 @@
         <v>1316</v>
       </c>
       <c r="D236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E236" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F236">
         <v>-88.157449</v>
@@ -8119,7 +8110,7 @@
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -8130,10 +8121,10 @@
         <v>1317</v>
       </c>
       <c r="D237" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E237" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F237">
         <v>-88.113983000000005</v>
@@ -8148,7 +8139,7 @@
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -8159,10 +8150,10 @@
         <v>1318</v>
       </c>
       <c r="D238" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E238" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F238">
         <v>-88.202786000000003</v>
@@ -8177,7 +8168,7 @@
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -8188,10 +8179,10 @@
         <v>1319</v>
       </c>
       <c r="D239" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E239" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F239">
         <v>-88.089684000000005</v>
@@ -8206,7 +8197,7 @@
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8217,10 +8208,10 @@
         <v>1320</v>
       </c>
       <c r="D240" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E240" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F240">
         <v>-88.240140999999994</v>
@@ -8235,7 +8226,7 @@
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -8246,10 +8237,10 @@
         <v>1321</v>
       </c>
       <c r="D241" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E241" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F241">
         <v>-88.235798000000003</v>
@@ -8264,7 +8255,7 @@
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -8275,10 +8266,10 @@
         <v>1322</v>
       </c>
       <c r="D242" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E242" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F242">
         <v>-88.151544999999999</v>
@@ -8293,7 +8284,7 @@
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -8304,10 +8295,10 @@
         <v>1323</v>
       </c>
       <c r="D243" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E243" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F243">
         <v>-87.995634999999993</v>
@@ -8322,7 +8313,7 @@
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -8333,10 +8324,10 @@
         <v>1324</v>
       </c>
       <c r="D244" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E244" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F244">
         <v>-88.227382000000006</v>
@@ -8351,7 +8342,7 @@
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -8362,10 +8353,10 @@
         <v>1325</v>
       </c>
       <c r="D245" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E245" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F245">
         <v>-88.176061000000004</v>
@@ -8380,7 +8371,7 @@
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -8391,10 +8382,10 @@
         <v>1326</v>
       </c>
       <c r="D246" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E246" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F246">
         <v>-88.132830999999996</v>
@@ -8409,7 +8400,7 @@
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -8423,7 +8414,7 @@
         <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F247">
         <v>-87.888739999999999</v>
@@ -8438,7 +8429,7 @@
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -8452,7 +8443,7 @@
         <v>25</v>
       </c>
       <c r="E248" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F248">
         <v>-87.949792000000002</v>
@@ -8467,7 +8458,7 @@
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -8481,7 +8472,7 @@
         <v>52</v>
       </c>
       <c r="E249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F249">
         <v>-87.745835999999997</v>
@@ -8496,7 +8487,7 @@
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -8510,7 +8501,7 @@
         <v>54</v>
       </c>
       <c r="E250" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F250">
         <v>-87.880917999999994</v>
@@ -8525,7 +8516,7 @@
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -8539,7 +8530,7 @@
         <v>63</v>
       </c>
       <c r="E251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F251">
         <v>-87.992841999999996</v>
@@ -8554,7 +8545,7 @@
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -8568,7 +8559,7 @@
         <v>72</v>
       </c>
       <c r="E252" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F252">
         <v>-87.797155000000004</v>
@@ -8583,7 +8574,7 @@
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -8597,7 +8588,7 @@
         <v>86</v>
       </c>
       <c r="E253" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F253">
         <v>-88.034446000000003</v>
@@ -8612,7 +8603,7 @@
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -8626,7 +8617,7 @@
         <v>104</v>
       </c>
       <c r="E254" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F254">
         <v>-87.952781000000002</v>
@@ -8641,7 +8632,7 @@
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -8655,7 +8646,7 @@
         <v>107</v>
       </c>
       <c r="E255" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F255">
         <v>-87.908061000000004</v>
@@ -8670,7 +8661,7 @@
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -8684,7 +8675,7 @@
         <v>112</v>
       </c>
       <c r="E256" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F256">
         <v>-87.711618999999999</v>
@@ -8699,7 +8690,7 @@
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -8710,10 +8701,10 @@
         <v>1411</v>
       </c>
       <c r="D257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E257" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F257">
         <v>-87.843498999999994</v>
@@ -8728,7 +8719,7 @@
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -8739,10 +8730,10 @@
         <v>1412</v>
       </c>
       <c r="D258" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E258" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F258">
         <v>-87.759748999999999</v>
@@ -8757,7 +8748,7 @@
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -8768,10 +8759,10 @@
         <v>1413</v>
       </c>
       <c r="D259" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E259" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F259">
         <v>-87.797545999999997</v>
@@ -8786,7 +8777,7 @@
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -8797,10 +8788,10 @@
         <v>1414</v>
       </c>
       <c r="D260" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E260" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F260">
         <v>-87.913860999999997</v>
@@ -8815,7 +8806,7 @@
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -8826,10 +8817,10 @@
         <v>1415</v>
       </c>
       <c r="D261" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E261" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F261">
         <v>-87.899052999999995</v>
@@ -8844,7 +8835,7 @@
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -8855,10 +8846,10 @@
         <v>1416</v>
       </c>
       <c r="D262" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E262" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F262">
         <v>-87.90307</v>
@@ -8873,7 +8864,7 @@
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -8884,10 +8875,10 @@
         <v>1417</v>
       </c>
       <c r="D263" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E263" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F263">
         <v>-88.020249000000007</v>
@@ -8902,7 +8893,7 @@
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -8913,10 +8904,10 @@
         <v>1418</v>
       </c>
       <c r="D264" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E264" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F264">
         <v>-87.997708000000003</v>
@@ -8931,7 +8922,7 @@
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
